--- a/Breeding Like Rabbits/Workbook.xlsx
+++ b/Breeding Like Rabbits/Workbook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3810" tabRatio="718" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3810" tabRatio="718" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rabbit populations over time" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Rabbits</t>
   </si>
@@ -146,7 +146,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3276,11 +3275,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="533487912"/>
-        <c:axId val="254018448"/>
+        <c:axId val="426974784"/>
+        <c:axId val="426967336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="533487912"/>
+        <c:axId val="426974784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3336,12 +3335,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254018448"/>
+        <c:crossAx val="426967336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254018448"/>
+        <c:axId val="426967336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,7 +3391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533487912"/>
+        <c:crossAx val="426974784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3451,7 +3450,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3526,7 +3524,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4185,11 +4182,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="254018840"/>
-        <c:axId val="254016488"/>
+        <c:axId val="426968120"/>
+        <c:axId val="426975176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="254018840"/>
+        <c:axId val="426968120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4246,12 +4243,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254016488"/>
+        <c:crossAx val="426975176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254016488"/>
+        <c:axId val="426975176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4308,7 +4305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254018840"/>
+        <c:crossAx val="426968120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10818,19 +10815,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1001"/>
+  <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.9296875" customWidth="1"/>
+    <col min="11" max="11" width="10.265625" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" customWidth="1"/>
+    <col min="14" max="14" width="21.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10846,8 +10847,11 @@
       <c r="L1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10875,8 +10879,15 @@
       <c r="L2">
         <v>4.2483000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <f>SLOPE(K2:K21,J2:J21)</f>
+        <v>-9.8563144153516148E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10907,8 +10918,15 @@
       <c r="L3">
         <v>7.1871999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <f>INTERCEPT(K2:K21,J2:J21)</f>
+        <v>0.38137187905652353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10927,7 +10945,7 @@
         <v>7</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J23" si="2">J3+50</f>
+        <f t="shared" ref="J4:J21" si="2">J3+50</f>
         <v>150</v>
       </c>
       <c r="K4">
@@ -10937,7 +10955,7 @@
         <v>9.6071000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10945,6 +10963,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="C5">
+        <f>A5-A3</f>
+        <v>2</v>
+      </c>
       <c r="D5">
         <v>3</v>
       </c>
@@ -10959,8 +10981,19 @@
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K5">
+        <f>SLOPE(B$2:B201,A$2:A201)</f>
+        <v>0.35480281576740619</v>
+      </c>
+      <c r="L5">
+        <f>INTERCEPT(B$2:B201,A$2:A201)</f>
+        <v>12.555569996197107</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>7</v>
       </c>
@@ -10968,6 +11001,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="C6">
+        <f>A6-A4</f>
+        <v>5</v>
+      </c>
       <c r="D6">
         <v>7</v>
       </c>
@@ -10985,8 +11022,23 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K6">
+        <f>SLOPE(B$2:B251,A$2:A251)</f>
+        <v>0.34880780582164556</v>
+      </c>
+      <c r="L6">
+        <f>INTERCEPT(B$2:B251,A$2:A251)</f>
+        <v>14.445556338377671</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <f>SLOPE(L2:L21,J2:J21)</f>
+        <v>4.5667262520585394E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -10994,6 +11046,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="C7">
+        <f>A7-A5</f>
+        <v>1</v>
+      </c>
       <c r="D7">
         <v>4</v>
       </c>
@@ -11011,8 +11067,23 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K7">
+        <f>SLOPE(B$2:B301,A$2:A301)</f>
+        <v>0.3414425188079156</v>
+      </c>
+      <c r="L7">
+        <f>INTERCEPT(B$2:B301,A$2:A301)</f>
+        <v>16.956566765684613</v>
+      </c>
+      <c r="M7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <f>INTERCEPT(L2:L21,J2:J21)</f>
+        <v>3.2164732655238488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>13</v>
       </c>
@@ -11020,6 +11091,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="C8">
+        <f>A8-A6</f>
+        <v>6</v>
+      </c>
       <c r="D8">
         <v>13</v>
       </c>
@@ -11037,8 +11112,16 @@
         <f t="shared" si="2"/>
         <v>350</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K8">
+        <f>SLOPE(B$2:B351,A$2:A351)</f>
+        <v>0.33222599973299533</v>
+      </c>
+      <c r="L8">
+        <f>INTERCEPT(B$2:B351,A$2:A351)</f>
+        <v>20.214245723996981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11046,6 +11129,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="C9">
+        <f>A9-A7</f>
+        <v>2</v>
+      </c>
       <c r="D9">
         <v>6</v>
       </c>
@@ -11063,8 +11150,16 @@
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K9">
+        <f>SLOPE(B$2:B401,A$2:A401)</f>
+        <v>0.32758803660196206</v>
+      </c>
+      <c r="L9">
+        <f>INTERCEPT(B$2:B401,A$2:A401)</f>
+        <v>22.4034505027048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>15</v>
       </c>
@@ -11072,6 +11167,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="C10">
+        <f>A10-A8</f>
+        <v>2</v>
+      </c>
       <c r="D10">
         <v>15</v>
       </c>
@@ -11083,8 +11182,16 @@
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K10">
+        <f>SLOPE(B$2:B451,A$2:A451)</f>
+        <v>0.32431182682878712</v>
+      </c>
+      <c r="L10">
+        <f>INTERCEPT(B$2:B451,A$2:A451)</f>
+        <v>24.305192070383725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>11</v>
       </c>
@@ -11092,6 +11199,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="C11">
+        <f>A11-A9</f>
+        <v>5</v>
+      </c>
       <c r="D11">
         <v>11</v>
       </c>
@@ -11099,12 +11210,24 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
+      <c r="G11">
+        <f>(1E+24)/2 - 14*(1E+21) + 1</f>
+        <v>4.86E+23</v>
+      </c>
       <c r="J11">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K11">
+        <f>SLOPE(B$2:B501,A$2:A501)</f>
+        <v>0.32223340617071705</v>
+      </c>
+      <c r="L11">
+        <f>INTERCEPT(B$2:B501,A$2:A501)</f>
+        <v>25.855837847650861</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>22</v>
       </c>
@@ -11112,6 +11235,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="C12">
+        <f>A12-A10</f>
+        <v>7</v>
+      </c>
       <c r="D12">
         <v>22</v>
       </c>
@@ -11119,12 +11246,27 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
+      <c r="G12">
+        <v>1.0040969319052899E+26</v>
+      </c>
+      <c r="H12">
+        <f>G12-5E+23</f>
+        <v>9.9909693190528989E+25</v>
+      </c>
       <c r="J12">
         <f t="shared" si="2"/>
         <v>550</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K12">
+        <f>SLOPE(B$2:B551,A$2:A551)</f>
+        <v>0.32004776229392379</v>
+      </c>
+      <c r="L12">
+        <f>INTERCEPT(B$2:B551,A$2:A551)</f>
+        <v>27.573840909880175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11132,6 +11274,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="C13">
+        <f>A13-A11</f>
+        <v>1</v>
+      </c>
       <c r="D13">
         <v>12</v>
       </c>
@@ -11143,8 +11289,16 @@
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K13">
+        <f>SLOPE(B$2:B601,A$2:A601)</f>
+        <v>0.31584225861524357</v>
+      </c>
+      <c r="L13">
+        <f>INTERCEPT(B$2:B601,A$2:A601)</f>
+        <v>30.437664712024514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>25</v>
       </c>
@@ -11152,6 +11306,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="C14">
+        <f>A14-A12</f>
+        <v>3</v>
+      </c>
       <c r="D14">
         <v>25</v>
       </c>
@@ -11163,8 +11321,16 @@
         <f t="shared" si="2"/>
         <v>650</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K14">
+        <f>SLOPE(B$2:B651,A$2:A651)</f>
+        <v>0.31140182962016394</v>
+      </c>
+      <c r="L14">
+        <f>INTERCEPT(B$2:B651,A$2:A651)</f>
+        <v>33.632965184465434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>18</v>
       </c>
@@ -11172,6 +11338,10 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="C15">
+        <f>A15-A13</f>
+        <v>6</v>
+      </c>
       <c r="D15">
         <v>18</v>
       </c>
@@ -11183,8 +11353,16 @@
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K15">
+        <f>SLOPE(B$2:B701,A$2:A701)</f>
+        <v>0.30785551782970821</v>
+      </c>
+      <c r="L15">
+        <f>INTERCEPT(B$2:B701,A$2:A701)</f>
+        <v>36.470750296365054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>28</v>
       </c>
@@ -11192,6 +11370,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="C16">
+        <f>A16-A14</f>
+        <v>3</v>
+      </c>
       <c r="D16">
         <v>28</v>
       </c>
@@ -11203,6 +11385,14 @@
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
+      <c r="K16">
+        <f>SLOPE(B$2:B751,A$2:A751)</f>
+        <v>0.30543684691301487</v>
+      </c>
+      <c r="L16">
+        <f>INTERCEPT(B$2:B751,A$2:A751)</f>
+        <v>38.710468237286591</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
@@ -11212,6 +11402,10 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="C17">
+        <f>A17-A15</f>
+        <v>2</v>
+      </c>
       <c r="D17">
         <v>20</v>
       </c>
@@ -11223,6 +11417,14 @@
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
+      <c r="K17">
+        <f>SLOPE(B$2:B801,A$2:A801)</f>
+        <v>0.30378381792027143</v>
+      </c>
+      <c r="L17">
+        <f>INTERCEPT(B$2:B801,A$2:A801)</f>
+        <v>40.512586687256828</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18">
@@ -11232,6 +11434,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="C18">
+        <f>A18-A16</f>
+        <v>6</v>
+      </c>
       <c r="D18">
         <v>34</v>
       </c>
@@ -11243,6 +11449,14 @@
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
+      <c r="K18">
+        <f>SLOPE(B$2:B851,A$2:A851)</f>
+        <v>0.30220832518100516</v>
+      </c>
+      <c r="L18">
+        <f>INTERCEPT(B$2:B851,A$2:A851)</f>
+        <v>42.335173838635001</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19">
@@ -11252,6 +11466,10 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="C19">
+        <f>A19-A17</f>
+        <v>2</v>
+      </c>
       <c r="D19">
         <v>22</v>
       </c>
@@ -11263,6 +11481,14 @@
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
+      <c r="K19">
+        <f>SLOPE(B$2:B901,A$2:A901)</f>
+        <v>0.30089781395070664</v>
+      </c>
+      <c r="L19">
+        <f>INTERCEPT(B$2:B901,A$2:A901)</f>
+        <v>44.012780567262837</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20">
@@ -11272,6 +11498,10 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="C20">
+        <f>A20-A18</f>
+        <v>8</v>
+      </c>
       <c r="D20">
         <v>42</v>
       </c>
@@ -11283,6 +11513,14 @@
         <f t="shared" si="2"/>
         <v>950</v>
       </c>
+      <c r="K20">
+        <f>SLOPE(B$2:B951,A$2:A951)</f>
+        <v>0.29983798546308454</v>
+      </c>
+      <c r="L20">
+        <f>INTERCEPT(B$2:B951,A$2:A951)</f>
+        <v>45.533472098451398</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21">
@@ -11292,6 +11530,10 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="C21">
+        <f>A21-A19</f>
+        <v>5</v>
+      </c>
       <c r="D21">
         <v>27</v>
       </c>
@@ -11318,6 +11560,10 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="C22">
+        <f>A22-A20</f>
+        <v>2</v>
+      </c>
       <c r="D22">
         <v>44</v>
       </c>
@@ -11334,6 +11580,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="C23">
+        <f>A23-A21</f>
+        <v>7</v>
+      </c>
       <c r="D23">
         <v>34</v>
       </c>
@@ -11350,6 +11600,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="C24">
+        <f>A24-A22</f>
+        <v>4</v>
+      </c>
       <c r="D24">
         <v>48</v>
       </c>
@@ -11366,6 +11620,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="C25">
+        <f>A25-A23</f>
+        <v>1</v>
+      </c>
       <c r="D25">
         <v>35</v>
       </c>
@@ -11382,6 +11640,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="C26">
+        <f>A26-A24</f>
+        <v>7</v>
+      </c>
       <c r="D26">
         <v>55</v>
       </c>
@@ -11398,6 +11660,10 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="C27">
+        <f>A27-A25</f>
+        <v>3</v>
+      </c>
       <c r="D27">
         <v>38</v>
       </c>
@@ -11414,6 +11680,10 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
+      <c r="C28">
+        <f>A28-A26</f>
+        <v>4</v>
+      </c>
       <c r="D28">
         <v>59</v>
       </c>
@@ -11430,6 +11700,10 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="C29">
+        <f>A29-A27</f>
+        <v>6</v>
+      </c>
       <c r="D29">
         <v>44</v>
       </c>
@@ -21042,5 +21316,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="K5:L10 L20 L11 L12 L13 L14 L15 L16 L17 L18 L19 K11:K20" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>